--- a/data_selection/data/地区生产总值-北京解释变量筛选结果.xlsx
+++ b/data_selection/data/地区生产总值-北京解释变量筛选结果.xlsx
@@ -8,31 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meron/Desktop/Pingan/01_Code/data_selection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E37C79-BA6D-4247-ADB3-A516A858FEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647E12A-EE4B-AE4F-84D8-7587C9DE9D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13160" windowHeight="11600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13160" windowHeight="11600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="13" r:id="rId1"/>
-    <sheet name="v2" sheetId="12" r:id="rId2"/>
-    <sheet name="v3" sheetId="11" r:id="rId3"/>
-    <sheet name="v4" sheetId="10" r:id="rId4"/>
-    <sheet name="解释变量 (2)" sheetId="6" r:id="rId5"/>
-    <sheet name="解释变量" sheetId="1" r:id="rId6"/>
-    <sheet name="不平稳指标" sheetId="2" r:id="rId7"/>
-    <sheet name="原始数据" sheetId="3" r:id="rId8"/>
-    <sheet name="平稳数据" sheetId="4" r:id="rId9"/>
-    <sheet name="平稳原始数据" sheetId="5" r:id="rId10"/>
+    <sheet name="v3" sheetId="11" r:id="rId2"/>
+    <sheet name="解释变量 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="解释变量" sheetId="1" r:id="rId4"/>
+    <sheet name="不平稳指标" sheetId="2" r:id="rId5"/>
+    <sheet name="原始数据" sheetId="3" r:id="rId6"/>
+    <sheet name="平稳数据" sheetId="4" r:id="rId7"/>
+    <sheet name="平稳原始数据" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'解释变量 (2)'!$A$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'解释变量 (2)'!$A$1:$G$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="221">
   <si>
     <t>地区</t>
   </si>
@@ -379,9 +377,6 @@
     <t>六大高耗能行业-黑色金属冶炼及压延加工业+EX_ST_57_GYNY</t>
   </si>
   <si>
-    <t>出口产品交货值+EX_ST_55_ZYCS</t>
-  </si>
-  <si>
     <t>利润总额+万元+EX_ST_56_GYJJXY</t>
   </si>
   <si>
@@ -394,9 +389,6 @@
     <t>商业保险总保费收入+EX_ST_59_JR</t>
   </si>
   <si>
-    <t>商品房销售额+万元+EX_ST_52_XFYTZ</t>
-  </si>
-  <si>
     <t>固定资产投资额+万元+EX_ST_46_ZHZB</t>
   </si>
   <si>
@@ -469,28 +461,16 @@
     <t>按行业分-医药制造业+EX_ST_54_HYZZJ</t>
   </si>
   <si>
-    <t>按行业分-家具制造业+EX_ST_54_HYZZJ</t>
-  </si>
-  <si>
     <t>按行业分-工业+万元+EX_ST_46_ZHZB</t>
   </si>
   <si>
     <t>按行业分-电力、热力、燃气及水生产和供应业+EX_ST_54_HYZZJ</t>
   </si>
   <si>
-    <t>按行业分-电气机械和器材制造业+EX_ST_54_HYZZJ</t>
-  </si>
-  <si>
     <t>按行业分-纺织业+EX_ST_54_HYZZJ</t>
   </si>
   <si>
     <t>按行业分-纺织服装、服饰业+EX_ST_54_HYZZJ</t>
-  </si>
-  <si>
-    <t>按行业分-计算机、通信和其他电子设备制造业+EX_ST_54_HYZZJ</t>
-  </si>
-  <si>
-    <t>按行业分-通用设备制造业+EX_ST_54_HYZZJ</t>
   </si>
   <si>
     <t>按行业分-造纸和纸制品业+EX_ST_54_HYZZJ</t>
@@ -752,6 +732,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1183,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1204,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -1225,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -1246,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -1267,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1288,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -1309,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -1330,201 +1311,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B22"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2">
-        <v>7.1475103387000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3">
-        <v>7.5998475664000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4">
-        <v>7.7562140903999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5">
-        <v>7.7558981278999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6">
-        <v>7.0997650046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7">
-        <v>7.3664858557000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8">
-        <v>7.4999996858000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9">
-        <v>6.5757718942999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10">
-        <v>2.8930168391788298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12">
-        <v>5.8607927966338096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13">
-        <v>5.9000026155496803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14">
-        <v>2.59410799133311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15">
-        <v>0.90006853994375502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16">
-        <v>1.0999994644092399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18">
-        <v>-13.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19">
-        <v>-6.4512920021940898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20">
-        <v>-1.44000000000054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21">
-        <v>1.5312389507999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1373,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1603,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -1624,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -1633,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.84193464892526204</v>
+        <v>0.85018094445013925</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1645,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -1654,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.78011631544014604</v>
+        <v>0.84193464892526204</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1666,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1675,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.77910483098012362</v>
+        <v>0.83728721324875588</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1687,7 +1478,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -1696,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.77522220344436477</v>
+        <v>0.80585158459728568</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
@@ -1708,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -1717,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0.76747253079915612</v>
+        <v>0.78011631544014604</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
@@ -1729,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -1738,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.64597384147756465</v>
+        <v>0.77910483098012362</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1750,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1759,9 +1550,30 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0.64243243621868207</v>
+        <v>0.77522220344436477</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.76747253079915612</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1772,681 +1584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.96230286640316021</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.89139070868315806</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.85018094445013925</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.84193464892526204</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.83728721324875588</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.80585158459728568</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.78011631544014604</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.77910483098012362</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.77522220344436477</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.76747253079915612</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.96230286640316021</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.89139070868315806</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.85018094445013925</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.84193464892526204</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.83728721324875588</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.80585158459728568</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.78011631544014604</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.77910483098012362</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.77522220344436477</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.76747253079915612</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.7525159441793553</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.73719710960461304</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.68977415321215174</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.64656726131325026</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.64597384147756465</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.64243243621868207</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
@@ -4174,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
@@ -5877,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
@@ -5917,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:CN22"/>
   <sheetViews>
@@ -5959,229 +5101,229 @@
         <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="BB1" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>103</v>
@@ -6190,24 +5332,24 @@
         <v>104</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:92">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>7.1475103387000001</v>
@@ -6446,7 +5588,7 @@
     </row>
     <row r="3" spans="1:92">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>7.5998475664000003</v>
@@ -6688,7 +5830,7 @@
     </row>
     <row r="4" spans="1:92">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>7.7562140903999994</v>
@@ -6933,7 +6075,7 @@
     </row>
     <row r="5" spans="1:92">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>7.7558981278999992</v>
@@ -7184,7 +6326,7 @@
     </row>
     <row r="6" spans="1:92">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>7.0997650046</v>
@@ -7462,7 +6604,7 @@
     </row>
     <row r="7" spans="1:92">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>7.3664858557000006</v>
@@ -7734,7 +6876,7 @@
     </row>
     <row r="8" spans="1:92">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>7.4999996858000006</v>
@@ -8006,7 +7148,7 @@
     </row>
     <row r="9" spans="1:92">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>6.5757718942999999</v>
@@ -8281,7 +7423,7 @@
     </row>
     <row r="10" spans="1:92">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>2.8930168391788298</v>
@@ -8544,7 +7686,7 @@
     </row>
     <row r="11" spans="1:92">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -8822,7 +7964,7 @@
     </row>
     <row r="12" spans="1:92">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>5.8607927966338096</v>
@@ -9100,7 +8242,7 @@
     </row>
     <row r="13" spans="1:92">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <v>5.9000026155496803</v>
@@ -9375,7 +8517,7 @@
     </row>
     <row r="14" spans="1:92">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>2.59410799133311</v>
@@ -9653,7 +8795,7 @@
     </row>
     <row r="15" spans="1:92">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <v>0.90006853994375502</v>
@@ -9931,7 +9073,7 @@
     </row>
     <row r="16" spans="1:92">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B16">
         <v>1.0999994644092399</v>
@@ -10209,7 +9351,7 @@
     </row>
     <row r="17" spans="1:92">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -10487,7 +9629,7 @@
     </row>
     <row r="18" spans="1:92">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <v>-13.1</v>
@@ -10762,7 +9904,7 @@
     </row>
     <row r="19" spans="1:92">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B19">
         <v>-6.4512920021940898</v>
@@ -11025,7 +10167,7 @@
     </row>
     <row r="20" spans="1:92">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <v>-1.44000000000054</v>
@@ -11285,7 +10427,7 @@
     </row>
     <row r="21" spans="1:92">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <v>1.5312389507999999</v>
@@ -11548,7 +10690,7 @@
     </row>
     <row r="22" spans="1:92">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -11560,7 +10702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -11595,4 +10737,194 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2">
+        <v>7.1475103387000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>7.5998475664000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4">
+        <v>7.7562140903999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5">
+        <v>7.7558981278999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <v>7.0997650046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7">
+        <v>7.3664858557000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8">
+        <v>7.4999996858000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9">
+        <v>6.5757718942999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <v>2.8930168391788298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>5.8607927966338096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13">
+        <v>5.9000026155496803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14">
+        <v>2.59410799133311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15">
+        <v>0.90006853994375502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16">
+        <v>1.0999994644092399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>-13.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19">
+        <v>-6.4512920021940898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20">
+        <v>-1.44000000000054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21">
+        <v>1.5312389507999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>